--- a/Code/Results/Cases/Case_6_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032495964747464</v>
+        <v>1.048234829907402</v>
       </c>
       <c r="D2">
-        <v>1.046774518583016</v>
+        <v>1.061257640553933</v>
       </c>
       <c r="E2">
-        <v>1.043085907058309</v>
+        <v>1.057221089583959</v>
       </c>
       <c r="F2">
-        <v>1.052159243879207</v>
+        <v>1.066902294920526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054094718438126</v>
+        <v>1.064471665183143</v>
       </c>
       <c r="J2">
-        <v>1.053746343465078</v>
+        <v>1.06906270394682</v>
       </c>
       <c r="K2">
-        <v>1.057618515337256</v>
+        <v>1.071924763633454</v>
       </c>
       <c r="L2">
-        <v>1.053975928815432</v>
+        <v>1.067936903566516</v>
       </c>
       <c r="M2">
-        <v>1.062936772974066</v>
+        <v>1.077502094954816</v>
       </c>
       <c r="N2">
-        <v>1.055242784139193</v>
+        <v>1.070580895609631</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040079752247669</v>
+        <v>1.05430478976026</v>
       </c>
       <c r="D3">
-        <v>1.052768229201277</v>
+        <v>1.066117954030481</v>
       </c>
       <c r="E3">
-        <v>1.04958001239398</v>
+        <v>1.062397531060038</v>
       </c>
       <c r="F3">
-        <v>1.058891541441169</v>
+        <v>1.072347658844062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056455187194608</v>
+        <v>1.066707033948751</v>
       </c>
       <c r="J3">
-        <v>1.059534391297348</v>
+        <v>1.07341708472049</v>
       </c>
       <c r="K3">
-        <v>1.062767677395098</v>
+        <v>1.075969365327861</v>
       </c>
       <c r="L3">
-        <v>1.059615501778695</v>
+        <v>1.072289739102418</v>
       </c>
       <c r="M3">
-        <v>1.068822517474201</v>
+        <v>1.082131534641193</v>
       </c>
       <c r="N3">
-        <v>1.061039051663283</v>
+        <v>1.074941460103453</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044845639849587</v>
+        <v>1.058138523804908</v>
       </c>
       <c r="D4">
-        <v>1.056536922871428</v>
+        <v>1.069190256291138</v>
       </c>
       <c r="E4">
-        <v>1.053666459546955</v>
+        <v>1.065671909008196</v>
       </c>
       <c r="F4">
-        <v>1.063128181148595</v>
+        <v>1.07579252780768</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057926351106321</v>
+        <v>1.068109221364941</v>
       </c>
       <c r="J4">
-        <v>1.063167822830062</v>
+        <v>1.076163527706465</v>
       </c>
       <c r="K4">
-        <v>1.065997718601863</v>
+        <v>1.078519616507857</v>
       </c>
       <c r="L4">
-        <v>1.063157609399698</v>
+        <v>1.075037433566791</v>
       </c>
       <c r="M4">
-        <v>1.072520034118038</v>
+        <v>1.085054801759913</v>
       </c>
       <c r="N4">
-        <v>1.064677643085534</v>
+        <v>1.07769180335349</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046817247017826</v>
+        <v>1.059728741961294</v>
       </c>
       <c r="D5">
-        <v>1.058096393297326</v>
+        <v>1.070465189888133</v>
       </c>
       <c r="E5">
-        <v>1.055358184716206</v>
+        <v>1.067031247068388</v>
       </c>
       <c r="F5">
-        <v>1.064882157444434</v>
+        <v>1.077222739503207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05853196482279</v>
+        <v>1.068688485783488</v>
       </c>
       <c r="J5">
-        <v>1.064669929257906</v>
+        <v>1.077301799455421</v>
       </c>
       <c r="K5">
-        <v>1.067332477578347</v>
+        <v>1.079576373004631</v>
       </c>
       <c r="L5">
-        <v>1.064622402318963</v>
+        <v>1.076176753269628</v>
       </c>
       <c r="M5">
-        <v>1.074049281335904</v>
+        <v>1.086267154688395</v>
       </c>
       <c r="N5">
-        <v>1.066181882676801</v>
+        <v>1.078831691578891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04714646503693</v>
+        <v>1.059994514806267</v>
       </c>
       <c r="D6">
-        <v>1.058356813293049</v>
+        <v>1.070678300130271</v>
       </c>
       <c r="E6">
-        <v>1.055640736141247</v>
+        <v>1.067258498321169</v>
       </c>
       <c r="F6">
-        <v>1.065175110361907</v>
+        <v>1.077461844961561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058632912118424</v>
+        <v>1.068785158336254</v>
       </c>
       <c r="J6">
-        <v>1.064920688897522</v>
+        <v>1.077491981960404</v>
       </c>
       <c r="K6">
-        <v>1.067555265694594</v>
+        <v>1.079752923721028</v>
       </c>
       <c r="L6">
-        <v>1.064866958542433</v>
+        <v>1.076367141856569</v>
       </c>
       <c r="M6">
-        <v>1.074304609500012</v>
+        <v>1.086469761358555</v>
       </c>
       <c r="N6">
-        <v>1.066432998423867</v>
+        <v>1.079022144164845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044872107838247</v>
+        <v>1.058159855511258</v>
       </c>
       <c r="D7">
-        <v>1.05655785666833</v>
+        <v>1.069207356555584</v>
       </c>
       <c r="E7">
-        <v>1.053689165613254</v>
+        <v>1.065690139184876</v>
       </c>
       <c r="F7">
-        <v>1.063151722448251</v>
+        <v>1.075811708094431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057934493139697</v>
+        <v>1.068117001180897</v>
       </c>
       <c r="J7">
-        <v>1.063187992061856</v>
+        <v>1.076178800636719</v>
       </c>
       <c r="K7">
-        <v>1.066015643135977</v>
+        <v>1.078533796510539</v>
       </c>
       <c r="L7">
-        <v>1.063177275879425</v>
+        <v>1.075052718471142</v>
       </c>
       <c r="M7">
-        <v>1.072540565233274</v>
+        <v>1.085071065543631</v>
       </c>
       <c r="N7">
-        <v>1.064697840959951</v>
+        <v>1.077707097973057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035089375645781</v>
+        <v>1.050306277044536</v>
       </c>
       <c r="D8">
-        <v>1.048823676034796</v>
+        <v>1.062915701716283</v>
       </c>
       <c r="E8">
-        <v>1.04530549789289</v>
+        <v>1.058986529632423</v>
       </c>
       <c r="F8">
-        <v>1.054460179996971</v>
+        <v>1.06875937341017</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054904463816398</v>
+        <v>1.065236514771768</v>
       </c>
       <c r="J8">
-        <v>1.055726463474932</v>
+        <v>1.07054944925893</v>
       </c>
       <c r="K8">
-        <v>1.059380547979651</v>
+        <v>1.073305902084804</v>
       </c>
       <c r="L8">
-        <v>1.055904851162772</v>
+        <v>1.06942264975972</v>
       </c>
       <c r="M8">
-        <v>1.064949724555275</v>
+        <v>1.079082050575303</v>
       </c>
       <c r="N8">
-        <v>1.057225716146585</v>
+        <v>1.072069752270616</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016675928694202</v>
+        <v>1.035699104760194</v>
       </c>
       <c r="D9">
-        <v>1.034287973658191</v>
+        <v>1.05123734076333</v>
       </c>
       <c r="E9">
-        <v>1.029573317771606</v>
+        <v>1.046561046839296</v>
       </c>
       <c r="F9">
-        <v>1.038152785530951</v>
+        <v>1.055690409269459</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049105090298406</v>
+        <v>1.059803582385294</v>
       </c>
       <c r="J9">
-        <v>1.041653254513181</v>
+        <v>1.06005129310707</v>
       </c>
       <c r="K9">
-        <v>1.04684821133454</v>
+        <v>1.063550437691098</v>
       </c>
       <c r="L9">
-        <v>1.042204141871719</v>
+        <v>1.058941316041078</v>
       </c>
       <c r="M9">
-        <v>1.050655767827857</v>
+        <v>1.06794023970302</v>
       </c>
       <c r="N9">
-        <v>1.043132521613888</v>
+        <v>1.061556687532865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003464641141462</v>
+        <v>1.025370240157249</v>
       </c>
       <c r="D10">
-        <v>1.023881982194039</v>
+        <v>1.043000327935226</v>
       </c>
       <c r="E10">
-        <v>1.018325617141265</v>
+        <v>1.037808332206807</v>
       </c>
       <c r="F10">
-        <v>1.02649559565819</v>
+        <v>1.046486139252128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04488321707399</v>
+        <v>1.05591368223818</v>
       </c>
       <c r="J10">
-        <v>1.031541468732776</v>
+        <v>1.052612221862629</v>
       </c>
       <c r="K10">
-        <v>1.037833024871354</v>
+        <v>1.056634302181957</v>
       </c>
       <c r="L10">
-        <v>1.032371696475479</v>
+        <v>1.051526927402689</v>
       </c>
       <c r="M10">
-        <v>1.04040239380651</v>
+        <v>1.060063904843504</v>
       </c>
       <c r="N10">
-        <v>1.033006375937838</v>
+        <v>1.054107051953983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974839253240637</v>
+        <v>1.020738994951812</v>
       </c>
       <c r="D11">
-        <v>1.01917880263779</v>
+        <v>1.039313143888412</v>
       </c>
       <c r="E11">
-        <v>1.013245128748491</v>
+        <v>1.033892822051771</v>
       </c>
       <c r="F11">
-        <v>1.021230574812702</v>
+        <v>1.04236897782509</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042958670231207</v>
+        <v>1.054158805697182</v>
       </c>
       <c r="J11">
-        <v>1.026961751847353</v>
+        <v>1.04927375293025</v>
       </c>
       <c r="K11">
-        <v>1.033747876870595</v>
+        <v>1.053529895081605</v>
       </c>
       <c r="L11">
-        <v>1.027921510619726</v>
+        <v>1.048202675111014</v>
       </c>
       <c r="M11">
-        <v>1.035762920454045</v>
+        <v>1.056533791477671</v>
       </c>
       <c r="N11">
-        <v>1.028420155329136</v>
+        <v>1.050763842012793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9952195730448414</v>
+        <v>1.018993124119045</v>
       </c>
       <c r="D12">
-        <v>1.017399478890322</v>
+        <v>1.037924189315197</v>
       </c>
       <c r="E12">
-        <v>1.011323489794546</v>
+        <v>1.032418222388341</v>
       </c>
       <c r="F12">
-        <v>1.01923920441377</v>
+        <v>1.040818482850988</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042228130097437</v>
+        <v>1.053495712955375</v>
       </c>
       <c r="J12">
-        <v>1.025227636172974</v>
+        <v>1.048014858684071</v>
       </c>
       <c r="K12">
-        <v>1.032200755526414</v>
+        <v>1.052359185633838</v>
       </c>
       <c r="L12">
-        <v>1.026236918175964</v>
+        <v>1.046949623979907</v>
       </c>
       <c r="M12">
-        <v>1.034006866289277</v>
+        <v>1.055203331316015</v>
       </c>
       <c r="N12">
-        <v>1.026683577011593</v>
+        <v>1.049503159992387</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9957072891789414</v>
+        <v>1.019368808928579</v>
       </c>
       <c r="D13">
-        <v>1.017782661264054</v>
+        <v>1.03822302296486</v>
       </c>
       <c r="E13">
-        <v>1.011737301419628</v>
+        <v>1.032735466335368</v>
       </c>
       <c r="F13">
-        <v>1.019668029223251</v>
+        <v>1.041152052783446</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042385563632865</v>
+        <v>1.053638469089596</v>
       </c>
       <c r="J13">
-        <v>1.025601151842214</v>
+        <v>1.048285769017746</v>
       </c>
       <c r="K13">
-        <v>1.032534005730786</v>
+        <v>1.052611122064552</v>
       </c>
       <c r="L13">
-        <v>1.026599745019906</v>
+        <v>1.047219254938251</v>
       </c>
       <c r="M13">
-        <v>1.034385075730226</v>
+        <v>1.055489610582953</v>
       </c>
       <c r="N13">
-        <v>1.027057623115926</v>
+        <v>1.049774455049809</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9972976508943528</v>
+        <v>1.020595214183247</v>
       </c>
       <c r="D14">
-        <v>1.019032400092146</v>
+        <v>1.039198735360282</v>
       </c>
       <c r="E14">
-        <v>1.013087008047742</v>
+        <v>1.033771351588708</v>
       </c>
       <c r="F14">
-        <v>1.021066714964005</v>
+        <v>1.042241254535837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04289861078942</v>
+        <v>1.054104227836855</v>
       </c>
       <c r="J14">
-        <v>1.026819099897029</v>
+        <v>1.049170084068441</v>
       </c>
       <c r="K14">
-        <v>1.033620612793248</v>
+        <v>1.0534334896285</v>
       </c>
       <c r="L14">
-        <v>1.027782922756441</v>
+        <v>1.048099477570644</v>
       </c>
       <c r="M14">
-        <v>1.035618449644777</v>
+        <v>1.056424214926479</v>
       </c>
       <c r="N14">
-        <v>1.02827730079668</v>
+        <v>1.050660025929309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9982717263773322</v>
+        <v>1.021347392314765</v>
       </c>
       <c r="D15">
-        <v>1.019798031330925</v>
+        <v>1.039797297340483</v>
       </c>
       <c r="E15">
-        <v>1.01391393813339</v>
+        <v>1.034406874939613</v>
       </c>
       <c r="F15">
-        <v>1.021923661987159</v>
+        <v>1.042909494055817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043212600505803</v>
+        <v>1.054389685246334</v>
       </c>
       <c r="J15">
-        <v>1.027565055453934</v>
+        <v>1.049712405212891</v>
       </c>
       <c r="K15">
-        <v>1.034286091163933</v>
+        <v>1.053937810793105</v>
       </c>
       <c r="L15">
-        <v>1.02850764588217</v>
+        <v>1.048639352791943</v>
       </c>
       <c r="M15">
-        <v>1.03637394454896</v>
+        <v>1.056997469460579</v>
       </c>
       <c r="N15">
-        <v>1.029024315696039</v>
+        <v>1.051203117231989</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003855770381626</v>
+        <v>1.025674108491399</v>
       </c>
       <c r="D16">
-        <v>1.024189736038679</v>
+        <v>1.043242389932349</v>
       </c>
       <c r="E16">
-        <v>1.018658121671682</v>
+        <v>1.038065434968511</v>
       </c>
       <c r="F16">
-        <v>1.026840186363576</v>
+        <v>1.046756489837223</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045008812896746</v>
+        <v>1.056028606976585</v>
       </c>
       <c r="J16">
-        <v>1.031840941000236</v>
+        <v>1.052831212508643</v>
       </c>
       <c r="K16">
-        <v>1.03810011673962</v>
+        <v>1.056837927750805</v>
       </c>
       <c r="L16">
-        <v>1.032662762839426</v>
+        <v>1.051745051560211</v>
       </c>
       <c r="M16">
-        <v>1.040705866603608</v>
+        <v>1.060295562851438</v>
       </c>
       <c r="N16">
-        <v>1.033306273490267</v>
+        <v>1.054326353591833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007286338466966</v>
+        <v>1.028344439354863</v>
       </c>
       <c r="D17">
-        <v>1.026889901935945</v>
+        <v>1.045370285870646</v>
       </c>
       <c r="E17">
-        <v>1.021575792454683</v>
+        <v>1.040325834369994</v>
       </c>
       <c r="F17">
-        <v>1.029863960006889</v>
+        <v>1.049133400891349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046108915329802</v>
+        <v>1.057037332368135</v>
       </c>
       <c r="J17">
-        <v>1.034467364609577</v>
+        <v>1.05475533028488</v>
       </c>
       <c r="K17">
-        <v>1.04044232715375</v>
+        <v>1.058626975028472</v>
       </c>
       <c r="L17">
-        <v>1.035215807803826</v>
+        <v>1.053661913178962</v>
       </c>
       <c r="M17">
-        <v>1.043367871875853</v>
+        <v>1.062331501272423</v>
       </c>
       <c r="N17">
-        <v>1.035936426922387</v>
+        <v>1.056253203836013</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009262509756614</v>
+        <v>1.029886806194529</v>
       </c>
       <c r="D18">
-        <v>1.028446025023108</v>
+        <v>1.046599916282832</v>
       </c>
       <c r="E18">
-        <v>1.023257560808244</v>
+        <v>1.04163227286698</v>
       </c>
       <c r="F18">
-        <v>1.031606927259673</v>
+        <v>1.05050721297978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046741368402905</v>
+        <v>1.057618947852738</v>
       </c>
       <c r="J18">
-        <v>1.035980100506174</v>
+        <v>1.055866405574563</v>
       </c>
       <c r="K18">
-        <v>1.041791166281802</v>
+        <v>1.059659994791705</v>
       </c>
       <c r="L18">
-        <v>1.03668656149031</v>
+        <v>1.054769094206898</v>
       </c>
       <c r="M18">
-        <v>1.044901509827379</v>
+        <v>1.063507579554748</v>
       </c>
       <c r="N18">
-        <v>1.03745131107747</v>
+        <v>1.057365856980049</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009932229516731</v>
+        <v>1.030410187497782</v>
       </c>
       <c r="D19">
-        <v>1.028973504293967</v>
+        <v>1.047017268441593</v>
       </c>
       <c r="E19">
-        <v>1.023827681331225</v>
+        <v>1.042075735661619</v>
       </c>
       <c r="F19">
-        <v>1.032197801062376</v>
+        <v>1.050973551188202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0469554886682</v>
+        <v>1.05781613659521</v>
       </c>
       <c r="J19">
-        <v>1.036492724012429</v>
+        <v>1.056243383780057</v>
       </c>
       <c r="K19">
-        <v>1.042248214934402</v>
+        <v>1.060010478880562</v>
       </c>
       <c r="L19">
-        <v>1.037185005528612</v>
+        <v>1.055144800999952</v>
       </c>
       <c r="M19">
-        <v>1.045421284806135</v>
+        <v>1.063906685763185</v>
       </c>
       <c r="N19">
-        <v>1.037964662567904</v>
+        <v>1.057743370537835</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006920863982443</v>
+        <v>1.028059521722561</v>
       </c>
       <c r="D20">
-        <v>1.026602166674116</v>
+        <v>1.045143184698158</v>
       </c>
       <c r="E20">
-        <v>1.021264848946728</v>
+        <v>1.04008456692177</v>
       </c>
       <c r="F20">
-        <v>1.029541704646579</v>
+        <v>1.048879693930284</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045991846320844</v>
+        <v>1.056929809144979</v>
       </c>
       <c r="J20">
-        <v>1.034187580345977</v>
+        <v>1.054550060651402</v>
       </c>
       <c r="K20">
-        <v>1.040192839612594</v>
+        <v>1.058436121120111</v>
       </c>
       <c r="L20">
-        <v>1.034943810908531</v>
+        <v>1.053457386866054</v>
       </c>
       <c r="M20">
-        <v>1.043084254579128</v>
+        <v>1.062114257346174</v>
       </c>
       <c r="N20">
-        <v>1.035656245333042</v>
+        <v>1.05604764269611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968305445644795</v>
+        <v>1.020234790681982</v>
       </c>
       <c r="D21">
-        <v>1.01866529978007</v>
+        <v>1.038911957857689</v>
       </c>
       <c r="E21">
-        <v>1.012690531558085</v>
+        <v>1.033466878398615</v>
       </c>
       <c r="F21">
-        <v>1.020655849031257</v>
+        <v>1.041921108998698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042747974277316</v>
+        <v>1.053967389741693</v>
       </c>
       <c r="J21">
-        <v>1.026461379704254</v>
+        <v>1.048910205691497</v>
       </c>
       <c r="K21">
-        <v>1.033301475617777</v>
+        <v>1.053191818071735</v>
       </c>
       <c r="L21">
-        <v>1.027435401582778</v>
+        <v>1.047840788506564</v>
       </c>
       <c r="M21">
-        <v>1.035256179585283</v>
+        <v>1.056149538400953</v>
       </c>
       <c r="N21">
-        <v>1.0279190726002</v>
+        <v>1.050399778495261</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902362068684639</v>
+        <v>1.015165837936294</v>
       </c>
       <c r="D22">
-        <v>1.01348627973764</v>
+        <v>1.034881351180859</v>
       </c>
       <c r="E22">
-        <v>1.007098048260731</v>
+        <v>1.029188413737873</v>
       </c>
       <c r="F22">
-        <v>1.01486055545872</v>
+        <v>1.037422522436614</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040617011081807</v>
+        <v>1.052039317299155</v>
       </c>
       <c r="J22">
-        <v>1.021411005933153</v>
+        <v>1.045254524015223</v>
       </c>
       <c r="K22">
-        <v>1.028795222863371</v>
+        <v>1.049792087768733</v>
       </c>
       <c r="L22">
-        <v>1.022530190777692</v>
+        <v>1.044203001829032</v>
       </c>
       <c r="M22">
-        <v>1.030143260353615</v>
+        <v>1.052287380720414</v>
       </c>
       <c r="N22">
-        <v>1.022861526719058</v>
+        <v>1.046738905331694</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9937570944046336</v>
+        <v>1.017867766794874</v>
       </c>
       <c r="D23">
-        <v>1.016250671539326</v>
+        <v>1.037029197654654</v>
       </c>
       <c r="E23">
-        <v>1.010082913597478</v>
+        <v>1.031468145180379</v>
       </c>
       <c r="F23">
-        <v>1.017953629592467</v>
+        <v>1.039819519379306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041755777919685</v>
+        <v>1.053067868302866</v>
       </c>
       <c r="J23">
-        <v>1.024107584266837</v>
+        <v>1.047203303217643</v>
       </c>
       <c r="K23">
-        <v>1.031201409613449</v>
+        <v>1.051604459561613</v>
       </c>
       <c r="L23">
-        <v>1.025148990313415</v>
+        <v>1.046141972623646</v>
       </c>
       <c r="M23">
-        <v>1.03287284286466</v>
+        <v>1.054345839389621</v>
       </c>
       <c r="N23">
-        <v>1.025561934503277</v>
+        <v>1.04869045202411</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007086082595928</v>
+        <v>1.028188310553741</v>
       </c>
       <c r="D24">
-        <v>1.026732239868075</v>
+        <v>1.045245837496718</v>
       </c>
       <c r="E24">
-        <v>1.021405412705917</v>
+        <v>1.040193622324755</v>
       </c>
       <c r="F24">
-        <v>1.029687381866851</v>
+        <v>1.048994372018233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046044773165349</v>
+        <v>1.056978415093641</v>
       </c>
       <c r="J24">
-        <v>1.034314061978953</v>
+        <v>1.054642847777562</v>
       </c>
       <c r="K24">
-        <v>1.040305625675134</v>
+        <v>1.058522392155614</v>
       </c>
       <c r="L24">
-        <v>1.035066771245166</v>
+        <v>1.053549837075152</v>
       </c>
       <c r="M24">
-        <v>1.043212467739676</v>
+        <v>1.062212455817532</v>
       </c>
       <c r="N24">
-        <v>1.035782906584444</v>
+        <v>1.056140561590632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021589479978781</v>
+        <v>1.039573697164243</v>
       </c>
       <c r="D25">
-        <v>1.038163460521865</v>
+        <v>1.054331840107326</v>
       </c>
       <c r="E25">
-        <v>1.033765157679381</v>
+        <v>1.04985153672628</v>
       </c>
       <c r="F25">
-        <v>1.042497594937922</v>
+        <v>1.059150990514278</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050663342152705</v>
+        <v>1.06125316998783</v>
       </c>
       <c r="J25">
-        <v>1.045411493919494</v>
+        <v>1.062838895571431</v>
       </c>
       <c r="K25">
-        <v>1.050196877113057</v>
+        <v>1.066141457250976</v>
       </c>
       <c r="L25">
-        <v>1.045860987023977</v>
+        <v>1.061722299509092</v>
       </c>
       <c r="M25">
-        <v>1.054470159712711</v>
+        <v>1.070895563271246</v>
       </c>
       <c r="N25">
-        <v>1.046896098151234</v>
+        <v>1.064348248712468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048234829907402</v>
+        <v>1.027015738771835</v>
       </c>
       <c r="D2">
-        <v>1.061257640553933</v>
+        <v>1.042603744903985</v>
       </c>
       <c r="E2">
-        <v>1.057221089583959</v>
+        <v>1.038893202145681</v>
       </c>
       <c r="F2">
-        <v>1.066902294920526</v>
+        <v>1.047756124541942</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064471665183143</v>
+        <v>1.054371385076181</v>
       </c>
       <c r="J2">
-        <v>1.06906270394682</v>
+        <v>1.048417382603521</v>
       </c>
       <c r="K2">
-        <v>1.071924763633454</v>
+        <v>1.053499812894794</v>
       </c>
       <c r="L2">
-        <v>1.067936903566516</v>
+        <v>1.049836034103591</v>
       </c>
       <c r="M2">
-        <v>1.077502094954816</v>
+        <v>1.058587941201132</v>
       </c>
       <c r="N2">
-        <v>1.070580895609631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019622958463516</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048899203098107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05430478976026</v>
+        <v>1.03111924631092</v>
       </c>
       <c r="D3">
-        <v>1.066117954030481</v>
+        <v>1.04548171627758</v>
       </c>
       <c r="E3">
-        <v>1.062397531060038</v>
+        <v>1.04224621100411</v>
       </c>
       <c r="F3">
-        <v>1.072347658844062</v>
+        <v>1.051265912399906</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066707033948751</v>
+        <v>1.055483391223429</v>
       </c>
       <c r="J3">
-        <v>1.07341708472049</v>
+        <v>1.050796077840654</v>
       </c>
       <c r="K3">
-        <v>1.075969365327861</v>
+        <v>1.055563933306735</v>
       </c>
       <c r="L3">
-        <v>1.072289739102418</v>
+        <v>1.052365638987239</v>
       </c>
       <c r="M3">
-        <v>1.082131534641193</v>
+        <v>1.061282309967541</v>
       </c>
       <c r="N3">
-        <v>1.074941460103453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.020442590742885</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.050356049393199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058138523804908</v>
+        <v>1.033728141437139</v>
       </c>
       <c r="D4">
-        <v>1.069190256291138</v>
+        <v>1.047315771706611</v>
       </c>
       <c r="E4">
-        <v>1.065671909008196</v>
+        <v>1.044383720503309</v>
       </c>
       <c r="F4">
-        <v>1.07579252780768</v>
+        <v>1.053503690261974</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068109221364941</v>
+        <v>1.056183072492444</v>
       </c>
       <c r="J4">
-        <v>1.076163527706465</v>
+        <v>1.052306731456676</v>
       </c>
       <c r="K4">
-        <v>1.078519616507857</v>
+        <v>1.056874802378298</v>
       </c>
       <c r="L4">
-        <v>1.075037433566791</v>
+        <v>1.053974432721919</v>
       </c>
       <c r="M4">
-        <v>1.085054801759913</v>
+        <v>1.062996567405903</v>
       </c>
       <c r="N4">
-        <v>1.07769180335349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020962974171126</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.051283803349684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059728741961294</v>
+        <v>1.034818600446523</v>
       </c>
       <c r="D5">
-        <v>1.070465189888133</v>
+        <v>1.048085395354729</v>
       </c>
       <c r="E5">
-        <v>1.067031247068388</v>
+        <v>1.045279173419083</v>
       </c>
       <c r="F5">
-        <v>1.077222739503207</v>
+        <v>1.054441449590727</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068688485783488</v>
+        <v>1.056475447277167</v>
       </c>
       <c r="J5">
-        <v>1.077301799455421</v>
+        <v>1.052939487707878</v>
       </c>
       <c r="K5">
-        <v>1.079576373004631</v>
+        <v>1.057425208146695</v>
       </c>
       <c r="L5">
-        <v>1.076176753269628</v>
+        <v>1.054648498672585</v>
       </c>
       <c r="M5">
-        <v>1.086267154688395</v>
+        <v>1.063715125883342</v>
       </c>
       <c r="N5">
-        <v>1.078831691578891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021181401269007</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.051680035148659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059994514806267</v>
+        <v>1.035006458499802</v>
       </c>
       <c r="D6">
-        <v>1.070678300130271</v>
+        <v>1.04822050085334</v>
       </c>
       <c r="E6">
-        <v>1.067258498321169</v>
+        <v>1.045434329779909</v>
       </c>
       <c r="F6">
-        <v>1.077461844961561</v>
+        <v>1.054604209557437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068785158336254</v>
+        <v>1.056527788111815</v>
       </c>
       <c r="J6">
-        <v>1.077491981960404</v>
+        <v>1.053050609977538</v>
       </c>
       <c r="K6">
-        <v>1.079752923721028</v>
+        <v>1.057523485833686</v>
       </c>
       <c r="L6">
-        <v>1.076367141856569</v>
+        <v>1.054766481674365</v>
       </c>
       <c r="M6">
-        <v>1.086469761358555</v>
+        <v>1.063841075703303</v>
       </c>
       <c r="N6">
-        <v>1.079022144164845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021220362270602</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.0517581324145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058159855511258</v>
+        <v>1.033757277081453</v>
       </c>
       <c r="D7">
-        <v>1.069207356555584</v>
+        <v>1.047342926978762</v>
       </c>
       <c r="E7">
-        <v>1.065690139184876</v>
+        <v>1.044409838422431</v>
       </c>
       <c r="F7">
-        <v>1.075811708094431</v>
+        <v>1.053531746350423</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068117001180897</v>
+        <v>1.056196484446817</v>
       </c>
       <c r="J7">
-        <v>1.076178800636719</v>
+        <v>1.052329395695672</v>
       </c>
       <c r="K7">
-        <v>1.078533796510539</v>
+        <v>1.056898844068464</v>
       </c>
       <c r="L7">
-        <v>1.075052718471142</v>
+        <v>1.053997435766088</v>
       </c>
       <c r="M7">
-        <v>1.085071065543631</v>
+        <v>1.06302152648187</v>
       </c>
       <c r="N7">
-        <v>1.077707097973057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020972443538463</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.051320606610717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050306277044536</v>
+        <v>1.028430685698626</v>
       </c>
       <c r="D8">
-        <v>1.062915701716283</v>
+        <v>1.043603410798259</v>
       </c>
       <c r="E8">
-        <v>1.058986529632423</v>
+        <v>1.040050991132007</v>
       </c>
       <c r="F8">
-        <v>1.06875937341017</v>
+        <v>1.048968797912996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065236514771768</v>
+        <v>1.054763301454118</v>
       </c>
       <c r="J8">
-        <v>1.07054944925893</v>
+        <v>1.049245132788819</v>
       </c>
       <c r="K8">
-        <v>1.073305902084804</v>
+        <v>1.054223444191376</v>
       </c>
       <c r="L8">
-        <v>1.06942264975972</v>
+        <v>1.050714457150999</v>
       </c>
       <c r="M8">
-        <v>1.079082050575303</v>
+        <v>1.059523925133444</v>
       </c>
       <c r="N8">
-        <v>1.072069752270616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019910366870664</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049433440327961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035699104760194</v>
+        <v>1.018649256002558</v>
       </c>
       <c r="D9">
-        <v>1.05123734076333</v>
+        <v>1.036761882802273</v>
       </c>
       <c r="E9">
-        <v>1.046561046839296</v>
+        <v>1.032090304442948</v>
       </c>
       <c r="F9">
-        <v>1.055690409269459</v>
+        <v>1.040636803073044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059803582385294</v>
+        <v>1.05206596646668</v>
       </c>
       <c r="J9">
-        <v>1.06005129310707</v>
+        <v>1.043560222845809</v>
       </c>
       <c r="K9">
-        <v>1.063550437691098</v>
+        <v>1.049285408194418</v>
       </c>
       <c r="L9">
-        <v>1.058941316041078</v>
+        <v>1.044683342873477</v>
       </c>
       <c r="M9">
-        <v>1.06794023970302</v>
+        <v>1.053103270799239</v>
       </c>
       <c r="N9">
-        <v>1.061556687532865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017948961894998</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045938870717027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025370240157249</v>
+        <v>1.011858815298203</v>
       </c>
       <c r="D10">
-        <v>1.043000327935226</v>
+        <v>1.032041950460604</v>
       </c>
       <c r="E10">
-        <v>1.037808332206807</v>
+        <v>1.026599308240235</v>
       </c>
       <c r="F10">
-        <v>1.046486139252128</v>
+        <v>1.034891433957304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05591368223818</v>
+        <v>1.050159246335977</v>
       </c>
       <c r="J10">
-        <v>1.052612221862629</v>
+        <v>1.039609702167005</v>
       </c>
       <c r="K10">
-        <v>1.056634302181957</v>
+        <v>1.045855813355157</v>
       </c>
       <c r="L10">
-        <v>1.051526927402689</v>
+        <v>1.040504356685942</v>
       </c>
       <c r="M10">
-        <v>1.060063904843504</v>
+        <v>1.048658049132666</v>
       </c>
       <c r="N10">
-        <v>1.054107051953983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016586341630229</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043530599012658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020738994951812</v>
+        <v>1.00886712157576</v>
       </c>
       <c r="D11">
-        <v>1.039313143888412</v>
+        <v>1.029977823102976</v>
       </c>
       <c r="E11">
-        <v>1.033892822051771</v>
+        <v>1.024192123067948</v>
       </c>
       <c r="F11">
-        <v>1.04236897782509</v>
+        <v>1.032373660082634</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054158805697182</v>
+        <v>1.049318148457888</v>
       </c>
       <c r="J11">
-        <v>1.04927375293025</v>
+        <v>1.037875614490336</v>
       </c>
       <c r="K11">
-        <v>1.053529895081605</v>
+        <v>1.04435571127903</v>
       </c>
       <c r="L11">
-        <v>1.048202675111014</v>
+        <v>1.038671790943428</v>
       </c>
       <c r="M11">
-        <v>1.056533791477671</v>
+        <v>1.046709833948541</v>
       </c>
       <c r="N11">
-        <v>1.050763842012793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015990764568522</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042502481634468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018993124119045</v>
+        <v>1.007734026476909</v>
       </c>
       <c r="D12">
-        <v>1.037924189315197</v>
+        <v>1.029192554492034</v>
       </c>
       <c r="E12">
-        <v>1.032418222388341</v>
+        <v>1.023279997416199</v>
       </c>
       <c r="F12">
-        <v>1.040818482850988</v>
+        <v>1.031419330705288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053495712955375</v>
+        <v>1.048994519200894</v>
       </c>
       <c r="J12">
-        <v>1.048014858684071</v>
+        <v>1.037214637174656</v>
       </c>
       <c r="K12">
-        <v>1.052359185633838</v>
+        <v>1.043781056891721</v>
       </c>
       <c r="L12">
-        <v>1.046949623979907</v>
+        <v>1.037974379029189</v>
       </c>
       <c r="M12">
-        <v>1.055203331316015</v>
+        <v>1.0459683651787</v>
       </c>
       <c r="N12">
-        <v>1.049503159992387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015762375266523</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042096189824957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019368808928579</v>
+        <v>1.007975468746847</v>
       </c>
       <c r="D13">
-        <v>1.03822302296486</v>
+        <v>1.029358929933955</v>
       </c>
       <c r="E13">
-        <v>1.032735466335368</v>
+        <v>1.023473938159714</v>
       </c>
       <c r="F13">
-        <v>1.041152052783446</v>
+        <v>1.031622178275602</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053638469089596</v>
+        <v>1.049062773194486</v>
       </c>
       <c r="J13">
-        <v>1.048285769017746</v>
+        <v>1.037354684735448</v>
       </c>
       <c r="K13">
-        <v>1.052611122064552</v>
+        <v>1.043902254724138</v>
       </c>
       <c r="L13">
-        <v>1.047219254938251</v>
+        <v>1.038122249158737</v>
       </c>
       <c r="M13">
-        <v>1.055489610582953</v>
+        <v>1.046125540908465</v>
       </c>
       <c r="N13">
-        <v>1.049774455049809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015810492745886</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042179410145296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020595214183247</v>
+        <v>1.008772785345977</v>
       </c>
       <c r="D14">
-        <v>1.039198735360282</v>
+        <v>1.029912037678261</v>
       </c>
       <c r="E14">
-        <v>1.033771351588708</v>
+        <v>1.02411600453872</v>
       </c>
       <c r="F14">
-        <v>1.042241254535837</v>
+        <v>1.032293990663802</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054104227836855</v>
+        <v>1.049290904884903</v>
       </c>
       <c r="J14">
-        <v>1.049170084068441</v>
+        <v>1.037820245535844</v>
       </c>
       <c r="K14">
-        <v>1.0534334896285</v>
+        <v>1.044307334070255</v>
       </c>
       <c r="L14">
-        <v>1.048099477570644</v>
+        <v>1.038613413492111</v>
       </c>
       <c r="M14">
-        <v>1.056424214926479</v>
+        <v>1.04664775294843</v>
       </c>
       <c r="N14">
-        <v>1.050660025929309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015971516476394</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042467220466716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021347392314765</v>
+        <v>1.009266739510971</v>
       </c>
       <c r="D15">
-        <v>1.039797297340483</v>
+        <v>1.03025663641046</v>
       </c>
       <c r="E15">
-        <v>1.034406874939613</v>
+        <v>1.024514661073052</v>
       </c>
       <c r="F15">
-        <v>1.042909494055817</v>
+        <v>1.032711253997887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054389685246334</v>
+        <v>1.049433583802259</v>
       </c>
       <c r="J15">
-        <v>1.049712405212891</v>
+        <v>1.038110240121344</v>
       </c>
       <c r="K15">
-        <v>1.053937810793105</v>
+        <v>1.044560768833317</v>
       </c>
       <c r="L15">
-        <v>1.048639352791943</v>
+        <v>1.038919170529631</v>
       </c>
       <c r="M15">
-        <v>1.056997469460579</v>
+        <v>1.046972917042418</v>
       </c>
       <c r="N15">
-        <v>1.051203117231989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016072354936126</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042652218196999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025674108491399</v>
+        <v>1.012091850883901</v>
       </c>
       <c r="D16">
-        <v>1.043242389932349</v>
+        <v>1.032218442788733</v>
       </c>
       <c r="E16">
-        <v>1.038065434968511</v>
+        <v>1.026793022281159</v>
       </c>
       <c r="F16">
-        <v>1.046756489837223</v>
+        <v>1.035095245037407</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056028606976585</v>
+        <v>1.050237663160637</v>
       </c>
       <c r="J16">
-        <v>1.052831212508643</v>
+        <v>1.039758520426837</v>
       </c>
       <c r="K16">
-        <v>1.056837927750805</v>
+        <v>1.04599432583335</v>
       </c>
       <c r="L16">
-        <v>1.051745051560211</v>
+        <v>1.040659495353925</v>
       </c>
       <c r="M16">
-        <v>1.060295562851438</v>
+        <v>1.048823588800166</v>
       </c>
       <c r="N16">
-        <v>1.054326353591833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01664208999847</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043668906238902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028344439354863</v>
+        <v>1.013844331474455</v>
       </c>
       <c r="D17">
-        <v>1.045370285870646</v>
+        <v>1.033437267525418</v>
       </c>
       <c r="E17">
-        <v>1.040325834369994</v>
+        <v>1.028208678360386</v>
       </c>
       <c r="F17">
-        <v>1.049133400891349</v>
+        <v>1.036576628587348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057037332368135</v>
+        <v>1.050734271531768</v>
       </c>
       <c r="J17">
-        <v>1.05475533028488</v>
+        <v>1.040780694918156</v>
       </c>
       <c r="K17">
-        <v>1.058626975028472</v>
+        <v>1.046883364851525</v>
       </c>
       <c r="L17">
-        <v>1.053661913178962</v>
+        <v>1.041739546965458</v>
       </c>
       <c r="M17">
-        <v>1.062331501272423</v>
+        <v>1.049972354135051</v>
       </c>
       <c r="N17">
-        <v>1.056253203836013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016995383440223</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044300033696453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029886806194529</v>
+        <v>1.014848608795505</v>
       </c>
       <c r="D18">
-        <v>1.046599916282832</v>
+        <v>1.0341316396796</v>
       </c>
       <c r="E18">
-        <v>1.04163227286698</v>
+        <v>1.029018949131857</v>
       </c>
       <c r="F18">
-        <v>1.05050721297978</v>
+        <v>1.037424177443379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057618947852738</v>
+        <v>1.051014074911846</v>
       </c>
       <c r="J18">
-        <v>1.055866405574563</v>
+        <v>1.041362156644022</v>
       </c>
       <c r="K18">
-        <v>1.059659994791705</v>
+        <v>1.047386123758754</v>
       </c>
       <c r="L18">
-        <v>1.054769094206898</v>
+        <v>1.042354896901273</v>
       </c>
       <c r="M18">
-        <v>1.063507579554748</v>
+        <v>1.050626743302585</v>
       </c>
       <c r="N18">
-        <v>1.057365856980049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017194958206181</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044643980948445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030410187497782</v>
+        <v>1.015198400603162</v>
       </c>
       <c r="D19">
-        <v>1.047017268441593</v>
+        <v>1.034377295132762</v>
       </c>
       <c r="E19">
-        <v>1.042075735661619</v>
+        <v>1.029302712185086</v>
       </c>
       <c r="F19">
-        <v>1.050973551188202</v>
+        <v>1.037721294870411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05781613659521</v>
+        <v>1.051114512050431</v>
       </c>
       <c r="J19">
-        <v>1.056243383780057</v>
+        <v>1.041567929745572</v>
       </c>
       <c r="K19">
-        <v>1.060010478880562</v>
+        <v>1.047566383080061</v>
       </c>
       <c r="L19">
-        <v>1.055144800999952</v>
+        <v>1.042572173591609</v>
       </c>
       <c r="M19">
-        <v>1.063906685763185</v>
+        <v>1.050857968464582</v>
       </c>
       <c r="N19">
-        <v>1.057743370537835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017266672583546</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044777750073126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028059521722561</v>
+        <v>1.013656166286163</v>
       </c>
       <c r="D20">
-        <v>1.045143184698158</v>
+        <v>1.033305964707872</v>
       </c>
       <c r="E20">
-        <v>1.04008456692177</v>
+        <v>1.028056451343291</v>
       </c>
       <c r="F20">
-        <v>1.048879693930284</v>
+        <v>1.036417301552015</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056929809144979</v>
+        <v>1.050680722343512</v>
       </c>
       <c r="J20">
-        <v>1.054550060651402</v>
+        <v>1.040670629160454</v>
       </c>
       <c r="K20">
-        <v>1.058436121120111</v>
+        <v>1.046787403365733</v>
       </c>
       <c r="L20">
-        <v>1.053457386866054</v>
+        <v>1.041623272054325</v>
       </c>
       <c r="M20">
-        <v>1.062114257346174</v>
+        <v>1.049848658648296</v>
       </c>
       <c r="N20">
-        <v>1.05604764269611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016957234136193</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044230866085059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020234790681982</v>
+        <v>1.008550263804121</v>
       </c>
       <c r="D21">
-        <v>1.038911957857689</v>
+        <v>1.029762689919756</v>
       </c>
       <c r="E21">
-        <v>1.033466878398615</v>
+        <v>1.023938757634327</v>
       </c>
       <c r="F21">
-        <v>1.041921108998698</v>
+        <v>1.032108894385529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053967389741693</v>
+        <v>1.049231525026157</v>
       </c>
       <c r="J21">
-        <v>1.048910205691497</v>
+        <v>1.037694801246906</v>
       </c>
       <c r="K21">
-        <v>1.053191818071735</v>
+        <v>1.044201317096809</v>
       </c>
       <c r="L21">
-        <v>1.047840788506564</v>
+        <v>1.038480365655027</v>
       </c>
       <c r="M21">
-        <v>1.056149538400953</v>
+        <v>1.046506460425259</v>
       </c>
       <c r="N21">
-        <v>1.050399778495261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015929659073814</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042405645726278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015165837936294</v>
+        <v>1.005259040958577</v>
       </c>
       <c r="D22">
-        <v>1.034881351180859</v>
+        <v>1.027478797924243</v>
       </c>
       <c r="E22">
-        <v>1.029188413737873</v>
+        <v>1.021289995779494</v>
       </c>
       <c r="F22">
-        <v>1.037422522436614</v>
+        <v>1.029337301916011</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052039317299155</v>
+        <v>1.04828492792149</v>
       </c>
       <c r="J22">
-        <v>1.045254524015223</v>
+        <v>1.035770132260961</v>
       </c>
       <c r="K22">
-        <v>1.049792087768733</v>
+        <v>1.042524865957339</v>
       </c>
       <c r="L22">
-        <v>1.044203001829032</v>
+        <v>1.036451171826447</v>
       </c>
       <c r="M22">
-        <v>1.052287380720414</v>
+        <v>1.044349154908625</v>
       </c>
       <c r="N22">
-        <v>1.046738905331694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015263056869522</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041206977707704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017867766794874</v>
+        <v>1.006995890081355</v>
       </c>
       <c r="D23">
-        <v>1.037029197654654</v>
+        <v>1.02867739153997</v>
       </c>
       <c r="E23">
-        <v>1.031468145180379</v>
+        <v>1.022684648951038</v>
       </c>
       <c r="F23">
-        <v>1.039819519379306</v>
+        <v>1.030796172179197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053067868302866</v>
+        <v>1.048780037152727</v>
       </c>
       <c r="J23">
-        <v>1.047203303217643</v>
+        <v>1.036780521065964</v>
       </c>
       <c r="K23">
-        <v>1.051604459561613</v>
+        <v>1.043401204863567</v>
       </c>
       <c r="L23">
-        <v>1.046141972623646</v>
+        <v>1.037516999779491</v>
       </c>
       <c r="M23">
-        <v>1.054345839389621</v>
+        <v>1.045482003370555</v>
       </c>
       <c r="N23">
-        <v>1.04869045202411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015611171148999</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041817032507408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028188310553741</v>
+        <v>1.013717983011232</v>
       </c>
       <c r="D24">
-        <v>1.045245837496718</v>
+        <v>1.033339184100495</v>
       </c>
       <c r="E24">
-        <v>1.040193622324755</v>
+        <v>1.028102672100367</v>
       </c>
       <c r="F24">
-        <v>1.048994372018233</v>
+        <v>1.03646490209878</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056978415093641</v>
+        <v>1.050689948913631</v>
       </c>
       <c r="J24">
-        <v>1.054642847777562</v>
+        <v>1.04069800802212</v>
       </c>
       <c r="K24">
-        <v>1.058522392155614</v>
+        <v>1.046805073361104</v>
       </c>
       <c r="L24">
-        <v>1.053549837075152</v>
+        <v>1.041653614679285</v>
       </c>
       <c r="M24">
-        <v>1.062212455817532</v>
+        <v>1.049880547566315</v>
       </c>
       <c r="N24">
-        <v>1.056140561590632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016963818146964</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044216258132607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039573697164243</v>
+        <v>1.021248311886249</v>
       </c>
       <c r="D25">
-        <v>1.054331840107326</v>
+        <v>1.038585652209305</v>
       </c>
       <c r="E25">
-        <v>1.04985153672628</v>
+        <v>1.03420354635612</v>
       </c>
       <c r="F25">
-        <v>1.059150990514278</v>
+        <v>1.042849249749728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06125316998783</v>
+        <v>1.052797928644283</v>
       </c>
       <c r="J25">
-        <v>1.062838895571431</v>
+        <v>1.045081151348543</v>
       </c>
       <c r="K25">
-        <v>1.066141457250976</v>
+        <v>1.050613112960368</v>
       </c>
       <c r="L25">
-        <v>1.061722299509092</v>
+        <v>1.046293124746191</v>
       </c>
       <c r="M25">
-        <v>1.070895563271246</v>
+        <v>1.054816905246934</v>
       </c>
       <c r="N25">
-        <v>1.064348248712468</v>
+        <v>1.018476698368801</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046905845001484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027015738771835</v>
+        <v>1.024998580607456</v>
       </c>
       <c r="D2">
-        <v>1.042603744903985</v>
+        <v>1.03997976183976</v>
       </c>
       <c r="E2">
-        <v>1.038893202145681</v>
+        <v>1.03701128081502</v>
       </c>
       <c r="F2">
-        <v>1.047756124541942</v>
+        <v>1.04548782530412</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054371385076181</v>
+        <v>1.053125202837407</v>
       </c>
       <c r="J2">
-        <v>1.048417382603521</v>
+        <v>1.04645645821087</v>
       </c>
       <c r="K2">
-        <v>1.053499812894794</v>
+        <v>1.050908856772221</v>
       </c>
       <c r="L2">
-        <v>1.049836034103591</v>
+        <v>1.047977990352921</v>
       </c>
       <c r="M2">
-        <v>1.058587941201132</v>
+        <v>1.056347830937837</v>
       </c>
       <c r="N2">
-        <v>1.019622958463516</v>
+        <v>1.019234941274353</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048899203098107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047075879086505</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025418939799365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03111924631092</v>
+        <v>1.028872335938892</v>
       </c>
       <c r="D3">
-        <v>1.04548171627758</v>
+        <v>1.042595699018447</v>
       </c>
       <c r="E3">
-        <v>1.04224621100411</v>
+        <v>1.040148285787762</v>
       </c>
       <c r="F3">
-        <v>1.051265912399906</v>
+        <v>1.048757095729456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055483391223429</v>
+        <v>1.054097431650486</v>
       </c>
       <c r="J3">
-        <v>1.050796077840654</v>
+        <v>1.048605703460846</v>
       </c>
       <c r="K3">
-        <v>1.055563933306735</v>
+        <v>1.052711093861527</v>
       </c>
       <c r="L3">
-        <v>1.052365638987239</v>
+        <v>1.050291994523033</v>
       </c>
       <c r="M3">
-        <v>1.061282309967541</v>
+        <v>1.058801931646621</v>
       </c>
       <c r="N3">
-        <v>1.020442590742885</v>
+        <v>1.019821555154749</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050356049393199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048347279945237</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025807950928139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033728141437139</v>
+        <v>1.031336788907022</v>
       </c>
       <c r="D4">
-        <v>1.047315771706611</v>
+        <v>1.044264259161318</v>
       </c>
       <c r="E4">
-        <v>1.044383720503309</v>
+        <v>1.042149824637434</v>
       </c>
       <c r="F4">
-        <v>1.053503690261974</v>
+        <v>1.050843307225227</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056183072492444</v>
+        <v>1.05470879704849</v>
       </c>
       <c r="J4">
-        <v>1.052306731456676</v>
+        <v>1.049971499686247</v>
       </c>
       <c r="K4">
-        <v>1.056874802378298</v>
+        <v>1.053856266816415</v>
       </c>
       <c r="L4">
-        <v>1.053974432721919</v>
+        <v>1.051764821499832</v>
       </c>
       <c r="M4">
-        <v>1.062996567405903</v>
+        <v>1.06036450895725</v>
       </c>
       <c r="N4">
-        <v>1.020962974171126</v>
+        <v>1.020194322250333</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051283803349684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049157959478868</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026052856555113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034818600446523</v>
+        <v>1.032367162720058</v>
       </c>
       <c r="D5">
-        <v>1.048085395354729</v>
+        <v>1.044964947658973</v>
       </c>
       <c r="E5">
-        <v>1.045279173419083</v>
+        <v>1.042988680994975</v>
       </c>
       <c r="F5">
-        <v>1.054441449590727</v>
+        <v>1.051717970223238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056475447277167</v>
+        <v>1.054964343749092</v>
       </c>
       <c r="J5">
-        <v>1.052939487707878</v>
+        <v>1.050543871186712</v>
       </c>
       <c r="K5">
-        <v>1.057425208146695</v>
+        <v>1.054337589629095</v>
       </c>
       <c r="L5">
-        <v>1.054648498672585</v>
+        <v>1.05238223891327</v>
       </c>
       <c r="M5">
-        <v>1.063715125883342</v>
+        <v>1.061019865566733</v>
       </c>
       <c r="N5">
-        <v>1.021181401269007</v>
+        <v>1.02035090849161</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051680035148659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049506060315478</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02615577648954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035006458499802</v>
+        <v>1.032544591171184</v>
       </c>
       <c r="D6">
-        <v>1.04822050085334</v>
+        <v>1.045088173194694</v>
       </c>
       <c r="E6">
-        <v>1.045434329779909</v>
+        <v>1.043134011343808</v>
       </c>
       <c r="F6">
-        <v>1.054604209557437</v>
+        <v>1.051869811498624</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056527788111815</v>
+        <v>1.055010295991546</v>
       </c>
       <c r="J6">
-        <v>1.053050609977538</v>
+        <v>1.05064451441768</v>
       </c>
       <c r="K6">
-        <v>1.057523485833686</v>
+        <v>1.054423962090733</v>
       </c>
       <c r="L6">
-        <v>1.054766481674365</v>
+        <v>1.052490387620035</v>
       </c>
       <c r="M6">
-        <v>1.063841075703303</v>
+        <v>1.061134879085817</v>
       </c>
       <c r="N6">
-        <v>1.021220362270602</v>
+        <v>1.020378895757425</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.0517581324145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049576613212475</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026174866266036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033757277081453</v>
+        <v>1.031373601434599</v>
       </c>
       <c r="D7">
-        <v>1.047342926978762</v>
+        <v>1.04429679398473</v>
       </c>
       <c r="E7">
-        <v>1.044409838422431</v>
+        <v>1.042182799883246</v>
       </c>
       <c r="F7">
-        <v>1.053531746350423</v>
+        <v>1.050877778870897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056196484446817</v>
+        <v>1.054725937136333</v>
       </c>
       <c r="J7">
-        <v>1.052329395695672</v>
+        <v>1.050001635573053</v>
       </c>
       <c r="K7">
-        <v>1.056898844068464</v>
+        <v>1.053885616688476</v>
       </c>
       <c r="L7">
-        <v>1.053997435766088</v>
+        <v>1.051794597598515</v>
       </c>
       <c r="M7">
-        <v>1.06302152648187</v>
+        <v>1.060395803863384</v>
       </c>
       <c r="N7">
-        <v>1.020972443538463</v>
+        <v>1.020229857658186</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051320606610717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049200524779782</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026061699755827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028430685698626</v>
+        <v>1.026363087882295</v>
       </c>
       <c r="D8">
-        <v>1.043603410798259</v>
+        <v>1.040911303515874</v>
       </c>
       <c r="E8">
-        <v>1.040050991132007</v>
+        <v>1.038120651561</v>
       </c>
       <c r="F8">
-        <v>1.048968797912996</v>
+        <v>1.046642680325617</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054763301454118</v>
+        <v>1.053483667476188</v>
       </c>
       <c r="J8">
-        <v>1.049245132788819</v>
+        <v>1.047233244128966</v>
       </c>
       <c r="K8">
-        <v>1.054223444191376</v>
+        <v>1.051564217345323</v>
       </c>
       <c r="L8">
-        <v>1.050714457150999</v>
+        <v>1.048807873431345</v>
       </c>
       <c r="M8">
-        <v>1.059523925133444</v>
+        <v>1.057225845597101</v>
       </c>
       <c r="N8">
-        <v>1.019910366870664</v>
+        <v>1.019527909138343</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049433440327961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047564121547104</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025565581810251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018649256002558</v>
+        <v>1.017144577510844</v>
       </c>
       <c r="D9">
-        <v>1.036761882802273</v>
+        <v>1.034704949810301</v>
       </c>
       <c r="E9">
-        <v>1.032090304442948</v>
+        <v>1.030687858194414</v>
       </c>
       <c r="F9">
-        <v>1.040636803073044</v>
+        <v>1.038896783765384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05206596646668</v>
+        <v>1.051125527535353</v>
       </c>
       <c r="J9">
-        <v>1.043560222845809</v>
+        <v>1.04210611115558</v>
       </c>
       <c r="K9">
-        <v>1.049285408194418</v>
+        <v>1.04725898400996</v>
       </c>
       <c r="L9">
-        <v>1.044683342873477</v>
+        <v>1.043301921540241</v>
       </c>
       <c r="M9">
-        <v>1.053103270799239</v>
+        <v>1.051388806172792</v>
       </c>
       <c r="N9">
-        <v>1.017948961894998</v>
+        <v>1.018136926425433</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045938870717027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044516696113187</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02462201999375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011858815298203</v>
+        <v>1.010799777277681</v>
       </c>
       <c r="D10">
-        <v>1.032041950460604</v>
+        <v>1.030466974818132</v>
       </c>
       <c r="E10">
-        <v>1.026599308240235</v>
+        <v>1.025611986229338</v>
       </c>
       <c r="F10">
-        <v>1.034891433957304</v>
+        <v>1.033605558745862</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050159246335977</v>
+        <v>1.04948036083903</v>
       </c>
       <c r="J10">
-        <v>1.039609702167005</v>
+        <v>1.038591364820049</v>
       </c>
       <c r="K10">
-        <v>1.045855813355157</v>
+        <v>1.044307097101602</v>
       </c>
       <c r="L10">
-        <v>1.040504356685942</v>
+        <v>1.039533709993829</v>
       </c>
       <c r="M10">
-        <v>1.048658049132666</v>
+        <v>1.047393453690473</v>
       </c>
       <c r="N10">
-        <v>1.016586341630229</v>
+        <v>1.017296236502495</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043530599012658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042447874011978</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023967820752794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00886712157576</v>
+        <v>1.008078051116621</v>
       </c>
       <c r="D11">
-        <v>1.029977823102976</v>
+        <v>1.02867217224725</v>
       </c>
       <c r="E11">
-        <v>1.024192123067948</v>
+        <v>1.023454575144552</v>
       </c>
       <c r="F11">
-        <v>1.032373660082634</v>
+        <v>1.031352524152666</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049318148457888</v>
+        <v>1.048792198436891</v>
       </c>
       <c r="J11">
-        <v>1.037875614490336</v>
+        <v>1.03711859269365</v>
       </c>
       <c r="K11">
-        <v>1.04435571127903</v>
+        <v>1.043072899304403</v>
       </c>
       <c r="L11">
-        <v>1.038671790943428</v>
+        <v>1.037947324970185</v>
       </c>
       <c r="M11">
-        <v>1.046709833948541</v>
+        <v>1.045706446504026</v>
       </c>
       <c r="N11">
-        <v>1.015990764568522</v>
+        <v>1.017128790108452</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042502481634468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041610986533351</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02370034421122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007734026476909</v>
+        <v>1.007054641186765</v>
       </c>
       <c r="D12">
-        <v>1.029192554492034</v>
+        <v>1.02799469341033</v>
       </c>
       <c r="E12">
-        <v>1.023279997416199</v>
+        <v>1.022643931738906</v>
       </c>
       <c r="F12">
-        <v>1.031419330705288</v>
+        <v>1.030505091464976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048994519200894</v>
+        <v>1.048530463810745</v>
       </c>
       <c r="J12">
-        <v>1.037214637174656</v>
+        <v>1.036563407989551</v>
       </c>
       <c r="K12">
-        <v>1.043781056891721</v>
+        <v>1.042604518812298</v>
       </c>
       <c r="L12">
-        <v>1.037974379029189</v>
+        <v>1.037349798545264</v>
       </c>
       <c r="M12">
-        <v>1.0459683651787</v>
+        <v>1.045070303364481</v>
       </c>
       <c r="N12">
-        <v>1.015762375266523</v>
+        <v>1.017081014540625</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042096189824957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041279838541428</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023597922260325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007975468746847</v>
+        <v>1.007272412747219</v>
       </c>
       <c r="D13">
-        <v>1.029358929933955</v>
+        <v>1.028137848032856</v>
       </c>
       <c r="E13">
-        <v>1.023473938159714</v>
+        <v>1.022815979154965</v>
       </c>
       <c r="F13">
-        <v>1.031622178275602</v>
+        <v>1.030684890904593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049062773194486</v>
+        <v>1.048585379487239</v>
       </c>
       <c r="J13">
-        <v>1.037354684735448</v>
+        <v>1.036680640664789</v>
       </c>
       <c r="K13">
-        <v>1.043902254724138</v>
+        <v>1.042702828272108</v>
       </c>
       <c r="L13">
-        <v>1.038122249158737</v>
+        <v>1.03747612549982</v>
       </c>
       <c r="M13">
-        <v>1.046125540908465</v>
+        <v>1.045204775605354</v>
       </c>
       <c r="N13">
-        <v>1.015810492745886</v>
+        <v>1.017089853789276</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042179410145296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041346632380554</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023619152563054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008772785345977</v>
+        <v>1.007992708226724</v>
       </c>
       <c r="D14">
-        <v>1.029912037678261</v>
+        <v>1.028615244334655</v>
       </c>
       <c r="E14">
-        <v>1.02411600453872</v>
+        <v>1.023386780405555</v>
       </c>
       <c r="F14">
-        <v>1.032293990663802</v>
+        <v>1.031281629217238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049290904884903</v>
+        <v>1.048770038102893</v>
       </c>
       <c r="J14">
-        <v>1.037820245535844</v>
+        <v>1.037071905011628</v>
       </c>
       <c r="K14">
-        <v>1.044307334070255</v>
+        <v>1.043033257701355</v>
       </c>
       <c r="L14">
-        <v>1.038613413492111</v>
+        <v>1.037897142893147</v>
       </c>
       <c r="M14">
-        <v>1.04664775294843</v>
+        <v>1.045653013690471</v>
       </c>
       <c r="N14">
-        <v>1.015971516476394</v>
+        <v>1.017124212701396</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042467220466716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041581798111012</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023691561050998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009266739510971</v>
+        <v>1.008439863325165</v>
       </c>
       <c r="D15">
-        <v>1.03025663641046</v>
+        <v>1.028913696868505</v>
       </c>
       <c r="E15">
-        <v>1.024514661073052</v>
+        <v>1.023742121423833</v>
       </c>
       <c r="F15">
-        <v>1.032711253997887</v>
+        <v>1.031653209941715</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049433583802259</v>
+        <v>1.048886255297699</v>
       </c>
       <c r="J15">
-        <v>1.038110240121344</v>
+        <v>1.037316709569236</v>
       </c>
       <c r="K15">
-        <v>1.044560768833317</v>
+        <v>1.043241175633468</v>
       </c>
       <c r="L15">
-        <v>1.038919170529631</v>
+        <v>1.038160247285914</v>
       </c>
       <c r="M15">
-        <v>1.046972917042418</v>
+        <v>1.045933147026649</v>
       </c>
       <c r="N15">
-        <v>1.016072354936126</v>
+        <v>1.017148963097059</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042652218196999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041735183657266</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023737667940015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012091850883901</v>
+        <v>1.011012806908471</v>
       </c>
       <c r="D16">
-        <v>1.032218442788733</v>
+        <v>1.030623568180069</v>
       </c>
       <c r="E16">
-        <v>1.026793022281159</v>
+        <v>1.025787078668191</v>
       </c>
       <c r="F16">
-        <v>1.035095245037407</v>
+        <v>1.033789704053922</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050237663160637</v>
+        <v>1.0495472622298</v>
       </c>
       <c r="J16">
-        <v>1.039758520426837</v>
+        <v>1.038720787905186</v>
       </c>
       <c r="K16">
-        <v>1.04599432583335</v>
+        <v>1.044425953882834</v>
       </c>
       <c r="L16">
-        <v>1.040659495353925</v>
+        <v>1.03967048414122</v>
       </c>
       <c r="M16">
-        <v>1.048823588800166</v>
+        <v>1.047539579740707</v>
       </c>
       <c r="N16">
-        <v>1.01664208999847</v>
+        <v>1.017322078612694</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043668906238902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042576275815573</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023998002161371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013844331474455</v>
+        <v>1.012623851913514</v>
       </c>
       <c r="D17">
-        <v>1.033437267525418</v>
+        <v>1.031697762791888</v>
       </c>
       <c r="E17">
-        <v>1.028208678360386</v>
+        <v>1.027071630710525</v>
       </c>
       <c r="F17">
-        <v>1.036576628587348</v>
+        <v>1.035130794410375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050734271531768</v>
+        <v>1.049962874479185</v>
       </c>
       <c r="J17">
-        <v>1.040780694918156</v>
+        <v>1.039605410968508</v>
       </c>
       <c r="K17">
-        <v>1.046883364851525</v>
+        <v>1.045171940316953</v>
       </c>
       <c r="L17">
-        <v>1.041739546965458</v>
+        <v>1.040621081177046</v>
       </c>
       <c r="M17">
-        <v>1.049972354135051</v>
+        <v>1.048549670026325</v>
       </c>
       <c r="N17">
-        <v>1.016995383440223</v>
+        <v>1.017468197259637</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044300033696453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043106507166907</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024162586188162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014848608795505</v>
+        <v>1.013553032284795</v>
       </c>
       <c r="D18">
-        <v>1.0341316396796</v>
+        <v>1.032313754305308</v>
       </c>
       <c r="E18">
-        <v>1.029018949131857</v>
+        <v>1.027812203769146</v>
       </c>
       <c r="F18">
-        <v>1.037424177443379</v>
+        <v>1.035903151200107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051014074911846</v>
+        <v>1.050199340337871</v>
       </c>
       <c r="J18">
-        <v>1.041362156644022</v>
+        <v>1.040113622366028</v>
       </c>
       <c r="K18">
-        <v>1.047386123758754</v>
+        <v>1.045597085434994</v>
       </c>
       <c r="L18">
-        <v>1.042354896901273</v>
+        <v>1.041167531029459</v>
       </c>
       <c r="M18">
-        <v>1.050626743302585</v>
+        <v>1.049129648788261</v>
       </c>
       <c r="N18">
-        <v>1.017194958206181</v>
+        <v>1.017564575710951</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044643980948445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043394438923528</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024255330050266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015198400603162</v>
+        <v>1.013877543257121</v>
       </c>
       <c r="D19">
-        <v>1.034377295132762</v>
+        <v>1.032532851201337</v>
       </c>
       <c r="E19">
-        <v>1.029302712185086</v>
+        <v>1.028072464005194</v>
       </c>
       <c r="F19">
-        <v>1.037721294870411</v>
+        <v>1.036174859483839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051114512050431</v>
+        <v>1.050285101780433</v>
       </c>
       <c r="J19">
-        <v>1.041567929745572</v>
+        <v>1.040294708772045</v>
       </c>
       <c r="K19">
-        <v>1.047566383080061</v>
+        <v>1.045751035240574</v>
       </c>
       <c r="L19">
-        <v>1.042572173591609</v>
+        <v>1.041361563813324</v>
       </c>
       <c r="M19">
-        <v>1.050857968464582</v>
+        <v>1.049335718352557</v>
       </c>
       <c r="N19">
-        <v>1.017266672583546</v>
+        <v>1.017602863713629</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044777750073126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04351022993199</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024289978667906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013656166286163</v>
+        <v>1.012450285775946</v>
       </c>
       <c r="D20">
-        <v>1.033305964707872</v>
+        <v>1.031581529140232</v>
       </c>
       <c r="E20">
-        <v>1.028056451343291</v>
+        <v>1.026932949058298</v>
       </c>
       <c r="F20">
-        <v>1.036417301552015</v>
+        <v>1.034986013916924</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050680722343512</v>
+        <v>1.049917724001227</v>
       </c>
       <c r="J20">
-        <v>1.040670629160454</v>
+        <v>1.039509564840497</v>
       </c>
       <c r="K20">
-        <v>1.046787403365733</v>
+        <v>1.04509089223539</v>
       </c>
       <c r="L20">
-        <v>1.041623272054325</v>
+        <v>1.040518189087409</v>
       </c>
       <c r="M20">
-        <v>1.049848658648296</v>
+        <v>1.048440361720415</v>
       </c>
       <c r="N20">
-        <v>1.016957234136193</v>
+        <v>1.017450727490767</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044230866085059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043047754192774</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024144578846655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008550263804121</v>
+        <v>1.007815934325446</v>
       </c>
       <c r="D21">
-        <v>1.029762689919756</v>
+        <v>1.028506016067855</v>
       </c>
       <c r="E21">
-        <v>1.023938757634327</v>
+        <v>1.023251603853186</v>
       </c>
       <c r="F21">
-        <v>1.032108894385529</v>
+        <v>1.031138907076957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049231525026157</v>
+        <v>1.048735447920548</v>
       </c>
       <c r="J21">
-        <v>1.037694801246906</v>
+        <v>1.036990470609397</v>
       </c>
       <c r="K21">
-        <v>1.044201317096809</v>
+        <v>1.042966736281289</v>
       </c>
       <c r="L21">
-        <v>1.038480365655027</v>
+        <v>1.037805462751582</v>
       </c>
       <c r="M21">
-        <v>1.046506460425259</v>
+        <v>1.045553419603817</v>
       </c>
       <c r="N21">
-        <v>1.015929659073814</v>
+        <v>1.017186358778483</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042405645726278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041549462066511</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023680689259429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.005259040958577</v>
+        <v>1.004830221126381</v>
       </c>
       <c r="D22">
-        <v>1.027478797924243</v>
+        <v>1.026525265122758</v>
       </c>
       <c r="E22">
-        <v>1.021289995779494</v>
+        <v>1.020885891591093</v>
       </c>
       <c r="F22">
-        <v>1.029337301916011</v>
+        <v>1.028666565779269</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04828492792149</v>
+        <v>1.047962107031195</v>
       </c>
       <c r="J22">
-        <v>1.035770132260961</v>
+        <v>1.035359865087173</v>
       </c>
       <c r="K22">
-        <v>1.042524865957339</v>
+        <v>1.041588950378286</v>
       </c>
       <c r="L22">
-        <v>1.036451171826447</v>
+        <v>1.036054647119139</v>
       </c>
       <c r="M22">
-        <v>1.044349154908625</v>
+        <v>1.043690748441062</v>
       </c>
       <c r="N22">
-        <v>1.015263056869522</v>
+        <v>1.017002564163136</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041206977707704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040560661142528</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023376271861358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006995890081355</v>
+        <v>1.006389765037168</v>
       </c>
       <c r="D23">
-        <v>1.02867739153997</v>
+        <v>1.027551141580948</v>
       </c>
       <c r="E23">
-        <v>1.022684648951038</v>
+        <v>1.02211641573025</v>
       </c>
       <c r="F23">
-        <v>1.030796172179197</v>
+        <v>1.0299532050085</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048780037152727</v>
+        <v>1.048357335885496</v>
       </c>
       <c r="J23">
-        <v>1.036780521065964</v>
+        <v>1.036199840588532</v>
       </c>
       <c r="K23">
-        <v>1.043401204863567</v>
+        <v>1.042295227400446</v>
       </c>
       <c r="L23">
-        <v>1.037516999779491</v>
+        <v>1.036959144115044</v>
       </c>
       <c r="M23">
-        <v>1.045482003370555</v>
+        <v>1.044654123261604</v>
       </c>
       <c r="N23">
-        <v>1.015611171148999</v>
+        <v>1.01705160747641</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041817032507408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041049531867557</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023529284559195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013717983011232</v>
+        <v>1.012507627036667</v>
       </c>
       <c r="D24">
-        <v>1.033339184100495</v>
+        <v>1.031609861126068</v>
       </c>
       <c r="E24">
-        <v>1.028102672100367</v>
+        <v>1.026975068842059</v>
       </c>
       <c r="F24">
-        <v>1.03646490209878</v>
+        <v>1.035029080070782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050689948913631</v>
+        <v>1.04992443122528</v>
       </c>
       <c r="J24">
-        <v>1.04069800802212</v>
+        <v>1.039532564186779</v>
       </c>
       <c r="K24">
-        <v>1.046805073361104</v>
+        <v>1.045103716057564</v>
       </c>
       <c r="L24">
-        <v>1.041653614679285</v>
+        <v>1.040544472285262</v>
       </c>
       <c r="M24">
-        <v>1.049880547566315</v>
+        <v>1.048467757062967</v>
       </c>
       <c r="N24">
-        <v>1.016963818146964</v>
+        <v>1.017450876997694</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044216258132607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043027040176905</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024144733256829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021248311886249</v>
+        <v>1.019579861370566</v>
       </c>
       <c r="D25">
-        <v>1.038585652209305</v>
+        <v>1.036349458096658</v>
       </c>
       <c r="E25">
-        <v>1.03420354635612</v>
+        <v>1.03264808369695</v>
       </c>
       <c r="F25">
-        <v>1.042849249749728</v>
+        <v>1.040941272149308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052797928644283</v>
+        <v>1.051760367161123</v>
       </c>
       <c r="J25">
-        <v>1.045081151348543</v>
+        <v>1.043465786545768</v>
       </c>
       <c r="K25">
-        <v>1.050613112960368</v>
+        <v>1.048408534561135</v>
       </c>
       <c r="L25">
-        <v>1.046293124746191</v>
+        <v>1.044759871692885</v>
       </c>
       <c r="M25">
-        <v>1.054816905246934</v>
+        <v>1.052935614262021</v>
       </c>
       <c r="N25">
-        <v>1.018476698368801</v>
+        <v>1.018477193283594</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046905845001484</v>
+        <v>1.045360519311182</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024877834491288</v>
       </c>
     </row>
   </sheetData>
